--- a/Testdata/TC_41.xlsx
+++ b/Testdata/TC_41.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSuyQtRxJGG/AmhSgpCiRVWXkphrsjcaq9sDuzkviWAi1SpCmKonCK9Io+pShQ12gTILV7+ZfAkt2n/kLPXPZGUrFWNQx759zmnDPnNkP07rXvGZckYjQM9ir1mlUxSOCELg3O9yoxP6vWH1fetVHv2iHeEY6wTzgQG8AVsN1rRvcqc84Xu6Z5dXVVu2rWwujcbFhW3XwyHEycOfFxlQaM48AhlZTLfTtXxUYd1x8Sjl3MseLcq/Qn/VqHUKcLsCEO8DmJau2Y0YAw1gs45ZQwwRkRzEmnO/yOMsxu1B7X6shcg2eU7Zh6rqIrUCq4poNtyZT6xG5Y9e2qtV1t1qfWzm6juWtt1Zr1xvsJY0qIBpjxCYkuqSMBE479hWS3tpt1a6fRtLaQuZEIZGUOsNHIc8fkkjLidojnsVIeMfUBthwOVpdzpoXMHK8W9HAVDiK8mE8p90g5NcbDtuEHWpdMiI32w4g44L8HqXRIrkaRdut0MQDsdE4jvuziZWlZx4xEo4VwUjlWG3XDgLc8EvHjBZw1cSEUAGHzKCbIvAOZMXUpc+CbBjFx7TPssTxTAYlOwuiCLbBDDiGPTSHjKvBC7ELAcco4dbJN1xDoKAoXIBE2b4eeuw9SNfEGRCq5H4CLxbbtMLzItNuERPJU5fnCmfqYJ+RrcDSZh1ejwFtO4hlzIjojbredUG/EIZGQmrsTMx76oEUGQgqWgyzhDyTgKhh1iUN97B154ERmN0FKAYBaMQ/PKO+EXuwHLNFpBYpOwKIpuU4tTNdoBIcbCKeHQT9YkbIRV+QYh1fJEa7DpRNy4BZzkuNeR6wSdwGWHN86Rp6IsHKfetAf8meRgxajYjInhG8MCYVBohTui45jt5eHsT+D9JpBjl3KXRkyMzyCOIVYB71sC7pIVf6dWtau/At6pGjUC9y76RIkgu1ye9l1wK2AENjktT0cXAD0hPL5YSuxZQMGKQ/cSb+OQ5C5Cw8vJTj1Uh6G+oHjxS5RBaEfnMkQFbqpQ70TjdZAA8hxG+FgOV0uoC4zusvhY68CnXqX8QhmgYrthHHAo6WoHMjUpG/jYfEskBtg7948ZxH5fgwjyHI/DpxO6N5/N1d55zig/P4ahnGkyuH9WaT3RGWMWZeIGiOL/r35nTI2sagUuR8QPwyoc39vg5OF9u4DDGFJVt2bg6j8uje9B31dtT2R6/dmi2B+hEZXapsWY6FDZbDq9HBz/OYdKdMlZzj2YHbj0GLP00q9CkYtdrFKkweh48hLKqAtJmMGo7Hj+jUHhgcx/tWc0BcAEybSkwky8/RiAnJILzgf4OA8hhkjrSur8LT+iv44jXDAhDnpSLFSijcToaROqVHHVsVrFMtAUMUrBCwyV+jQlPiLMMLeEBxD93XY6XkJRpEh5nO9gtbmESdxspmxplxFzRLF30Ymm5QyQyS8LpMrQEkkbFFDeEaTwZCwcghp6XWwR2eRqqpJK9+EgwPLhsOk/grjSg6KyRnARQy677fJUkzn2ULDZcjWE4QKYFFI7cn40XZjy2o2YLIRayQtHhPsGT1IZk6MfnBJGPeBbdcYE0Zd+KLY2zXeIzNCoQlKF+k2VJo7z4f2kzovVWmBvkVIkQDmjXMKbWSdMMVkDPYpwZG3zBEqUwehA3S3P/73zW+ev3rx2e1HT9988cP//uNXr/75s5tnP4KP27/+7ebjXyozFTGa4plHpELT9va21XwEcZaCkHCuKUdjN3a4hJ2eyok4XSN9sZOLTq/fORi0ZT1JgQm7aimmuDMuwzhbTpQRciN5pGYSCYrEnib1Sa8L2FyLssUd7pIUqfP4uxiVL16//Oz1yz/fya0dls1a9Z2drWq98dZRDG7D9TW6dBQbFHqAIH5UtbaqjUaOeIUGjVUDSP3Ud21x2bbgtl1Pa7mbBvImolWUljTF5+YKnwJ11HiUhkB+nSBl4E8hRVK0SoXcQofoFz9585enBSrtXQ0pSgHl5BgjNjOThRR9OJ4ak9HxuNMzpr2JiJMMl6NTwr+GWO+e5lMhqIIgxt63DGju0MyMCtyIKkZ4ZhDszI0lZGIuDwvBtgmqNnqgyFUtD6IwXqgTyTFk0A2UaTXZyLGh1kic9Oda0clQG8iVrjd//3wTgzakmw206ftHHoYKGAXK4XXWfvqvV19++OrFi9vnP7/58gcFCXqf9FkA4hyyKb9Mwx5Knu43KxB0MpHOvLC+m+svGiguUkchDTiz64/lHUqvELDWhTT5P+r70PKkYOkvgK9A0HuY9a65Tmz7EJlFAOi5wNBtw+zumQJUDc/8+p/f/u7215/ffvL8zYd/uvnojzcff/L65e/fPPuDyrrbp89vf/pMV/nVRiB1ETdaNQQa8n3EMUQ2GqJ3G1998AsjCLkBI4cRy4r01Qef5oQJReVwkkmGkS5VpKjCGmmeWfAZOVVSHQp8KYsaADqihTVTCt3EwgV1sk3erwpRIu8k4hv9aTVmxAhhmvomWFIkzpjvy6dZVEs9esdq1Bsaq7QRJswwy7n+wAtnMGQkCPkAsUJS4Pp6hoxW7ncwGLVbg4xEKTGKXBKJMFQfKBkpRUvps2SVhFoOAlgY/JzYE29Ga2TrqFRyroyZ+vHlrOWK8rf5qaJAgTpxFKmBKNBv+ZN4AcNw8kR3N14+W+bm30M1q+Yn4mzd7xbxsM5hoREW0QIg8bI0aZQqU30m3nnUOHsoXJMtAVd46gR36Od6NWldwlwZmaLu9KIojDYWnwyTkA1hkoaKYmYeT2nkmaqp283OKgEkBS/9UDc/bWHYJR7h5d6yzYx7GF4+mBfOvixrn408Vzuz3NUjdUsmIP+gLwLl/33PV8HWiiIYrMQDYOkH+OTiOob7bkltlCmSUdwAYXf9Qr5PI8afiEqgvxTkNIWcqgn1id3Uv+M8UYBTcQNTH9pILd0sqJmkLlc/q4TegPq05LXQSvK7KAR8uVioEa5fLlJEazkk1zBg5iRAUZx9D9qGekcpI00FLNTSlF+8XTJ6PudlFXtnholLZlbVmZFG9ZFrbVd3CGlW63X4FzuNhiV+TkuFQ+Wg5KrkJmZyYNnPnfb/AKFu/4EnHQAA</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqBke0kpCawxeWhOhDohUtPJL0JxpSh0Ne5jpHkl8cwAbDhwHQRCsA+dEnhwEyGaR2ICzm+O/GCvt5il/IdXHXCTl1SgLATtdV1dXV1d93UTvXE8D65JEnIZsp1JbcyoWYV7oU3a2U4nFpFrbqLzjot61R4JDHOEpESBsgRbj29ec7lTOhZht2/bV1dXaVWMtjM7suuPU7Cd7g6F3Tqa4ShkXmHmkkmr5b9equKjjT/eIwD4WWGvuVPrD/lqHUK8LtD3M8BmJ1toxp4xw3mOCCkq41IwIFqTT3fueXphbX9tYqyF7iZ5JtmMa+FquIKnpRg6mJSM6JW7dqTtVZ7Nab45qznZjfbv5aM1p1t9LFFNBNMBcDEl0ST1FGAo8nSl1Z7PerDmN9eYjZK8UAltZAFx0EPhH5JJy4ndIEPBSEbHNBrY8AasuF0wH2TldY+jhLjyO8Ox8REVAyqrvhhHxIFAPmnufXB1EJn6j2QC4o3MaiXkXz0vbOuYkOpjJaJRTdVE3ZKIVkEgcz2BTiQ97DgxXRDFB9h3MTKlLuQfflMXEdyc44HmlAhOdhNEFn2GP7MOBtaWNKxaE2IfMEpQL6mWTLjHQYRTOwCJM3g4DfxesGuEVjNRyn0GI5bTtMLzIvFvFRCoHVDbAnk6xSMSX6Gh4Hl4dsGA+jMfci+iY+N12Ir2Sh+TJM9qdmItwCl5kJKRpOcoc/sFJWySjLvHoFAeHAQSRuw2wUiCgVizCCRWdMIinjCc+LVDRCaxoRK7TFaZjdACby2TQQ9ZnC1ZW8ooaR+FVsoXLdBWEHLnFvWS7lxmLwl2gJdu3zFE7Ile5SwNoBPm9yFGLWTE8J0SsTAnNQbLm7crW4rbn+/F0DMdrDGfsUs3KkZ3xEeQp5Dr45TrQLqrqb+Q42+oP/EjZqMf8u+USJoLpcnO5NeAtkBCsKWgHmF0A9YSK8/1WspYVHKQjcKf8Mg/ByZ0FeK7IaZTyNNRnXhD7RBeEPpuoFJW+6U29k42WSAM44y7CbD6az6AAc7ot4GOnAi15m4sImn7F9cKYiWguKweyjejbdHg8ZmoCHNxbZxKRH8aANea7MfM6oX//2XwdnWNGxf09DONIl8P7q6joycoY8y6RNUYV/Xvre2XWxKNS4lNGpiGj3v2jDUGW3vsPWAhPTtW9NYg+X/eWD6Cv67Ynz/q91SIAitDoSk3T4jz0qEpWczz8nL59x5HpkgmOAwBpAlrsWVqpF8moxS8WZfIkdBwFSQV0JQTmgIE9f7rmAXiQOG/NC6eSYAP0PBkiOy8vEZBHeuxsgNlZDBgjrSuL9LT+yv44ijDjcjkppFgoxauFUFKnNNRxdfE6iFUi6OIVAhfZC3JoRKazMMLBHgSG7pq0M3gJoMgeFudmBK0tIF4SZDtTTbWKniWOv01MNSm9DHngTZlcICohuRaNtjOZjIbkKvfgWAYdHNBxpKtq0spX8WDDMnCY1F+5uJJAMdkDuHFB9/0umUsYng0MXaVsLWHoBJaF1B0eNTfr606jDshGjpFa8RHBgdWDwyyI1WeXhIspqG1bR4RTH74oDratd8mYUGiCKkSmDZXWzuuh3aTOK1da4G+RUhQAvHFGoY0sC6acTME9JTgK5jlBvdRB6IHc7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aVephZGIzwOiHJo1N7cdBpNyLOUhGRwbQWN/dgTinZ6qhBxOkbmBqcGnV6/83jQVvUkJSbquqXY8nI4D+NsONSLUBOpLbWTTNAi7iipT2Zc4OZalCsva5ekKJ3n36WoY/H65eevX/75Tm0TsAxr1ba21qu1+luhWN2p1ZbkUig2KPQAKdysOuvVej0nvCCDjnQDSOPU991Gzdly6g2nltZyP03kVUKLLGNphM/sBT1N6mh4lKZAfpwwVeKP4IikbH0UcgOTol/+5M1fnhakTHQNpWgFnFMwRk5mJwNlev9oZA0Pjo86PWvUG8o8yXg5OW38G4TN7Ol5KiQVYzEOvmNBc4dmZlXgRlSxwolFsHduzeEk5s5hIdlWUfVEDzS56OXjKIxnekdyChl1hWRaTVZqrKg1iqfiuVR0MtYKce3rzd+/WKVgFtLNAK17tNe2pizNS0VDBY4m5fjm1H72r1dfffTqxYvb5z+/+epHBQtmnvRZAPIcTlN+mKY9lDzTbxYo6GSognnhfD/XXwxRXqQOQ8oEd2sb6g5lRghUa9Ka+h/1p9DylGEVL6AvUNC7mPeuhTnY7j6yiwTwc4ah24bZ3TMl6BqexfU/v/3d7a+/uP30+ZuP/nTz8R9vPvn09cvfv3n2B33qbp8+v/3pM1PlFxuB8kXeaDUItNT7iGfJ02jJ3m19/f4vLBYKCyCHFauK9PX7n+WMSUcVOMksA6RLHSm6sCSaV5Z6Vs6V1IeCXqqiAUBHtrBGKmGaWDijXjbJe1VpSp47xfhWf1SNObFCQFPfhpUUhTPl++oZFd1SDx859VrdcLU3cgljzHOhfxyEYwAZCUM9QCyIFLS+WSGTVfM9Hhy0W4NMRDtxEPkkkmmoP1CfJ6AySa8cBbgA9rw4kO9ES2LLLJR85UqXbR5cJi1flrzVzxMFCdSJo0iDIGYe6ofxDABw8ix3N189VeYw777Gp3kUnI373SIfxjkuNL8iWxIUX5Ujw9Klqc/l246GsPsyNNkQeIXnTQiHeYvX6OoSsGRky1rTi6IwWllwMk4itgfoGaqInUU8lbHllBpp+9leJYSkyKUf+rZnVhh2SUBE6YfqRHsvvHywLux9WdU+Pwh8E8xy1400LJmB/Gu9TJSyzrSiCGCTfN4r/bw+oOyiX271roebk3Xc2Gyse01v4m2uk8lGY2u84Xi+N56MATgqo/L2KU3Im4u8u5WbBMBiUT27Zx/BzbukNR1gpSjvohApdSBNYU/HaJdGXDyRJcp8acppSjnV0PmJ21jXAPmJJpxKh/WH+QnHTGYXvE7qi9A/7ITBgE5pyfuqkxShohFIg9lMY8uyGwo9b59cA/LNWYBqPf4B9DP9wFPGmj5VUORT/cTWMB6XNmcnyofAl4n1MO2eD7js4drqZxIa/B8OKOT1UBN9xunZuSi7r/WtrQbZIPVqfeJ51SYMqtCNx1UfT7ZqjjNp+Ot1+aJtjEN3oOSq5CSyp1AO94ryevbC79zu/wDDACVaIB8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
         <v>1.15358987359135</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
       <c r="V2" s="2">
         <v>0.9524844521373417</v>
@@ -691,4 +691,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1A3EFF-178D-48D7-BF1D-789B0315DF29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_41.xlsx
+++ b/Testdata/TC_41.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqBke0kpCawxeWhOhDohUtPJL0JxpSh0Ne5jpHkl8cwAbDhwHQRCsA+dEnhwEyGaR2ICzm+O/GCvt5il/IdXHXCTl1SgLATtdV1dXV1d93UTvXE8D65JEnIZsp1JbcyoWYV7oU3a2U4nFpFrbqLzjot61R4JDHOEpESBsgRbj29ec7lTOhZht2/bV1dXaVWMtjM7suuPU7Cd7g6F3Tqa4ShkXmHmkkmr5b9equKjjT/eIwD4WWGvuVPrD/lqHUK8LtD3M8BmJ1toxp4xw3mOCCkq41IwIFqTT3fueXphbX9tYqyF7iZ5JtmMa+FquIKnpRg6mJSM6JW7dqTtVZ7Nab45qznZjfbv5aM1p1t9LFFNBNMBcDEl0ST1FGAo8nSl1Z7PerDmN9eYjZK8UAltZAFx0EPhH5JJy4ndIEPBSEbHNBrY8AasuF0wH2TldY+jhLjyO8Ox8REVAyqrvhhHxIFAPmnufXB1EJn6j2QC4o3MaiXkXz0vbOuYkOpjJaJRTdVE3ZKIVkEgcz2BTiQ97DgxXRDFB9h3MTKlLuQfflMXEdyc44HmlAhOdhNEFn2GP7MOBtaWNKxaE2IfMEpQL6mWTLjHQYRTOwCJM3g4DfxesGuEVjNRyn0GI5bTtMLzIvFvFRCoHVDbAnk6xSMSX6Gh4Hl4dsGA+jMfci+iY+N12Ir2Sh+TJM9qdmItwCl5kJKRpOcoc/sFJWySjLvHoFAeHAQSRuw2wUiCgVizCCRWdMIinjCc+LVDRCaxoRK7TFaZjdACby2TQQ9ZnC1ZW8ooaR+FVsoXLdBWEHLnFvWS7lxmLwl2gJdu3zFE7Ile5SwNoBPm9yFGLWTE8J0SsTAnNQbLm7crW4rbn+/F0DMdrDGfsUs3KkZ3xEeQp5Dr45TrQLqrqb+Q42+oP/EjZqMf8u+USJoLpcnO5NeAtkBCsKWgHmF0A9YSK8/1WspYVHKQjcKf8Mg/ByZ0FeK7IaZTyNNRnXhD7RBeEPpuoFJW+6U29k42WSAM44y7CbD6az6AAc7ot4GOnAi15m4sImn7F9cKYiWguKweyjejbdHg8ZmoCHNxbZxKRH8aANea7MfM6oX//2XwdnWNGxf09DONIl8P7q6joycoY8y6RNUYV/Xvre2XWxKNS4lNGpiGj3v2jDUGW3vsPWAhPTtW9NYg+X/eWD6Cv67Ynz/q91SIAitDoSk3T4jz0qEpWczz8nL59x5HpkgmOAwBpAlrsWVqpF8moxS8WZfIkdBwFSQV0JQTmgIE9f7rmAXiQOG/NC6eSYAP0PBkiOy8vEZBHeuxsgNlZDBgjrSuL9LT+yv44ijDjcjkppFgoxauFUFKnNNRxdfE6iFUi6OIVAhfZC3JoRKazMMLBHgSG7pq0M3gJoMgeFudmBK0tIF4SZDtTTbWKniWOv01MNSm9DHngTZlcICohuRaNtjOZjIbkKvfgWAYdHNBxpKtq0spX8WDDMnCY1F+5uJJAMdkDuHFB9/0umUsYng0MXaVsLWHoBJaF1B0eNTfr606jDshGjpFa8RHBgdWDwyyI1WeXhIspqG1bR4RTH74oDratd8mYUGiCKkSmDZXWzuuh3aTOK1da4G+RUhQAvHFGoY0sC6acTME9JTgK5jlBvdRB6IHc7Y//ffOb569efH778dM3X37w33/86tU/f3bz7EP4uP3r324++aVephZGIzwOiHJo1N7cdBpNyLOUhGRwbQWN/dgTinZ6qhBxOkbmBqcGnV6/83jQVvUkJSbquqXY8nI4D+NsONSLUBOpLbWTTNAi7iipT2Zc4OZalCsva5ekKJ3n36WoY/H65eevX/75Tm0TsAxr1ba21qu1+luhWN2p1ZbkUig2KPQAKdysOuvVej0nvCCDjnQDSOPU991Gzdly6g2nltZyP03kVUKLLGNphM/sBT1N6mh4lKZAfpwwVeKP4IikbH0UcgOTol/+5M1fnhakTHQNpWgFnFMwRk5mJwNlev9oZA0Pjo86PWvUG8o8yXg5OW38G4TN7Ol5KiQVYzEOvmNBc4dmZlXgRlSxwolFsHduzeEk5s5hIdlWUfVEDzS56OXjKIxnekdyChl1hWRaTVZqrKg1iqfiuVR0MtYKce3rzd+/WKVgFtLNAK17tNe2pizNS0VDBY4m5fjm1H72r1dfffTqxYvb5z+/+epHBQtmnvRZAPIcTlN+mKY9lDzTbxYo6GSognnhfD/XXwxRXqQOQ8oEd2sb6g5lRghUa9Ka+h/1p9DylGEVL6AvUNC7mPeuhTnY7j6yiwTwc4ah24bZ3TMl6BqexfU/v/3d7a+/uP30+ZuP/nTz8R9vPvn09cvfv3n2B33qbp8+v/3pM1PlFxuB8kXeaDUItNT7iGfJ02jJ3m19/f4vLBYKCyCHFauK9PX7n+WMSUcVOMksA6RLHSm6sCSaV5Z6Vs6V1IeCXqqiAUBHtrBGKmGaWDijXjbJe1VpSp47xfhWf1SNObFCQFPfhpUUhTPl++oZFd1SDx859VrdcLU3cgljzHOhfxyEYwAZCUM9QCyIFLS+WSGTVfM9Hhy0W4NMRDtxEPkkkmmoP1CfJ6AySa8cBbgA9rw4kO9ES2LLLJR85UqXbR5cJi1flrzVzxMFCdSJo0iDIGYe6ofxDABw8ix3N189VeYw777Gp3kUnI373SIfxjkuNL8iWxIUX5Ujw9Klqc/l246GsPsyNNkQeIXnTQiHeYvX6OoSsGRky1rTi6IwWllwMk4itgfoGaqInUU8lbHllBpp+9leJYSkyKUf+rZnVhh2SUBE6YfqRHsvvHywLux9WdU+Pwh8E8xy1400LJmB/Gu9TJSyzrSiCGCTfN4r/bw+oOyiX271roebk3Xc2Gyse01v4m2uk8lGY2u84Xi+N56MATgqo/L2KU3Im4u8u5WbBMBiUT27Zx/BzbukNR1gpSjvohApdSBNYU/HaJdGXDyRJcp8acppSjnV0PmJ21jXAPmJJpxKh/WH+QnHTGYXvE7qi9A/7ITBgE5pyfuqkxShohFIg9lMY8uyGwo9b59cA/LNWYBqPf4B9DP9wFPGmj5VUORT/cTWMB6XNmcnyofAl4n1MO2eD7js4drqZxIa/B8OKOT1UBN9xunZuSi7r/WtrQbZIPVqfeJ51SYMqtCNx1UfT7ZqjjNp+Ot1+aJtjEN3oOSq5CSyp1AO94ryevbC79zu/wDDACVaIB8AAA==</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSuyQtRxJGG/AmhSgpCiRVWXkphrsjcaq9sDuzkviWAi1SpCmKonCK9Io+pShQ12gTILV7+ZfAkt2n/kLPXPZGUrFWNQx759zmnDPnNkP07rXvGZckYjQM9ir1mlUxSOCELg3O9yoxP6vWH1fetVHv2iHeEY6wTzgQG8AVsN1rRvcqc84Xu6Z5dXVVu2rWwujcbFhW3XwyHEycOfFxlQaM48AhlZTLfTtXxUYd1x8Sjl3MseLcq/Qn/VqHUKcLsCEO8DmJau2Y0YAw1gs45ZQwwRkRzEmnO/yOMsxu1B7X6shcg2eU7Zh6rqIrUCq4poNtyZT6xG5Y9e2qtV1t1qfWzm6juWtt1Zr1xvsJY0qIBpjxCYkuqSMBE479hWS3tpt1a6fRtLaQuZEIZGUOsNHIc8fkkjLidojnsVIeMfUBthwOVpdzpoXMHK8W9HAVDiK8mE8p90g5NcbDtuEHWpdMiI32w4g44L8HqXRIrkaRdut0MQDsdE4jvuziZWlZx4xEo4VwUjlWG3XDgLc8EvHjBZw1cSEUAGHzKCbIvAOZMXUpc+CbBjFx7TPssTxTAYlOwuiCLbBDDiGPTSHjKvBC7ELAcco4dbJN1xDoKAoXIBE2b4eeuw9SNfEGRCq5H4CLxbbtMLzItNuERPJU5fnCmfqYJ+RrcDSZh1ejwFtO4hlzIjojbredUG/EIZGQmrsTMx76oEUGQgqWgyzhDyTgKhh1iUN97B154ERmN0FKAYBaMQ/PKO+EXuwHLNFpBYpOwKIpuU4tTNdoBIcbCKeHQT9YkbIRV+QYh1fJEa7DpRNy4BZzkuNeR6wSdwGWHN86Rp6IsHKfetAf8meRgxajYjInhG8MCYVBohTui45jt5eHsT+D9JpBjl3KXRkyMzyCOIVYB71sC7pIVf6dWtau/At6pGjUC9y76RIkgu1ye9l1wK2AENjktT0cXAD0hPL5YSuxZQMGKQ/cSb+OQ5C5Cw8vJTj1Uh6G+oHjxS5RBaEfnMkQFbqpQ70TjdZAA8hxG+FgOV0uoC4zusvhY68CnXqX8QhmgYrthHHAo6WoHMjUpG/jYfEskBtg7948ZxH5fgwjyHI/DpxO6N5/N1d55zig/P4ahnGkyuH9WaT3RGWMWZeIGiOL/r35nTI2sagUuR8QPwyoc39vg5OF9u4DDGFJVt2bg6j8uje9B31dtT2R6/dmi2B+hEZXapsWY6FDZbDq9HBz/OYdKdMlZzj2YHbj0GLP00q9CkYtdrFKkweh48hLKqAtJmMGo7Hj+jUHhgcx/tWc0BcAEybSkwky8/RiAnJILzgf4OA8hhkjrSur8LT+iv44jXDAhDnpSLFSijcToaROqVHHVsVrFMtAUMUrBCwyV+jQlPiLMMLeEBxD93XY6XkJRpEh5nO9gtbmESdxspmxplxFzRLF30Ymm5QyQyS8LpMrQEkkbFFDeEaTwZCwcghp6XWwR2eRqqpJK9+EgwPLhsOk/grjSg6KyRnARQy677fJUkzn2ULDZcjWE4QKYFFI7cn40XZjy2o2YLIRayQtHhPsGT1IZk6MfnBJGPeBbdcYE0Zd+KLY2zXeIzNCoQlKF+k2VJo7z4f2kzovVWmBvkVIkQDmjXMKbWSdMMVkDPYpwZG3zBEqUwehA3S3P/73zW+ev3rx2e1HT9988cP//uNXr/75s5tnP4KP27/+7ebjXyozFTGa4plHpELT9va21XwEcZaCkHCuKUdjN3a4hJ2eyok4XSN9sZOLTq/fORi0ZT1JgQm7aimmuDMuwzhbTpQRciN5pGYSCYrEnib1Sa8L2FyLssUd7pIUqfP4uxiVL16//Oz1yz/fya0dls1a9Z2drWq98dZRDG7D9TW6dBQbFHqAIH5UtbaqjUaOeIUGjVUDSP3Ud21x2bbgtl1Pa7mbBvImolWUljTF5+YKnwJ11HiUhkB+nSBl4E8hRVK0SoXcQofoFz9585enBSrtXQ0pSgHl5BgjNjOThRR9OJ4ak9HxuNMzpr2JiJMMl6NTwr+GWO+e5lMhqIIgxt63DGju0MyMCtyIKkZ4ZhDszI0lZGIuDwvBtgmqNnqgyFUtD6IwXqgTyTFk0A2UaTXZyLGh1kic9Oda0clQG8iVrjd//3wTgzakmw206ftHHoYKGAXK4XXWfvqvV19++OrFi9vnP7/58gcFCXqf9FkA4hyyKb9Mwx5Knu43KxB0MpHOvLC+m+svGiguUkchDTiz64/lHUqvELDWhTT5P+r70PKkYOkvgK9A0HuY9a65Tmz7EJlFAOi5wNBtw+zumQJUDc/8+p/f/u7215/ffvL8zYd/uvnojzcff/L65e/fPPuDyrrbp89vf/pMV/nVRiB1ETdaNQQa8n3EMUQ2GqJ3G1998AsjCLkBI4cRy4r01Qef5oQJReVwkkmGkS5VpKjCGmmeWfAZOVVSHQp8KYsaADqihTVTCt3EwgV1sk3erwpRIu8k4hv9aTVmxAhhmvomWFIkzpjvy6dZVEs9esdq1Bsaq7QRJswwy7n+wAtnMGQkCPkAsUJS4Pp6hoxW7ncwGLVbg4xEKTGKXBKJMFQfKBkpRUvps2SVhFoOAlgY/JzYE29Ga2TrqFRyroyZ+vHlrOWK8rf5qaJAgTpxFKmBKNBv+ZN4AcNw8kR3N14+W+bm30M1q+Yn4mzd7xbxsM5hoREW0QIg8bI0aZQqU30m3nnUOHsoXJMtAVd46gR36Od6NWldwlwZmaLu9KIojDYWnwyTkA1hkoaKYmYeT2nkmaqp283OKgEkBS/9UDc/bWHYJR7h5d6yzYx7GF4+mBfOvixrn408Vzuz3NUjdUsmIP+gLwLl/33PV8HWiiIYrMQDYOkH+OTiOob7bkltlCmSUdwAYXf9Qr5PI8afiEqgvxTkNIWcqgn1id3Uv+M8UYBTcQNTH9pILd0sqJmkLlc/q4TegPq05LXQSvK7KAR8uVioEa5fLlJEazkk1zBg5iRAUZx9D9qGekcpI00FLNTSlF+8XTJ6PudlFXtnholLZlbVmZFG9ZFrbVd3CGlW63X4FzuNhiV+TkuFQ+Wg5KrkJmZyYNnPnfb/AKFu/4EnHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
         <v>1.15358987359135</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
       <c r="V2" s="2">
         <v>0.9524844521373417</v>
@@ -691,37 +691,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>36</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1A3EFF-178D-48D7-BF1D-789B0315DF29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>